--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,9 +18,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430022地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430019地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430024地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430027地號</t>
+  </si>
+  <si>
+    <t>屏東縣車城鄉興安段14980000地號</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>6593分之325</t>
+  </si>
+  <si>
+    <t>潘孟安</t>
+  </si>
+  <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
+    <t>98年05月20日</t>
+  </si>
+  <si>
+    <t>97年12月12日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t>18957</t>
+  </si>
+  <si>
+    <t>3600000(與建物合購）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-26</t>
+  </si>
+  <si>
+    <t>tmp6a821</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,76 +146,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣恆春鎮大平頂段下大平 頂小段0279-0000地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0022 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0019 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0024 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0027 地號</t>
-  </si>
-  <si>
-    <t>屏東縣車城鄉興安段1498-0000 地號</t>
-  </si>
-  <si>
-    <t>13. n</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>6593分之 325</t>
-  </si>
-  <si>
-    <t>潘孟安</t>
-  </si>
-  <si>
-    <t>96年07月 05日</t>
-  </si>
-  <si>
-    <t>98年05月 20日</t>
-  </si>
-  <si>
-    <t>97年12月 12日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割</t>
-  </si>
-  <si>
-    <t>18，957</t>
-  </si>
-  <si>
-    <t>3,600,000(與 建物合購）</t>
-  </si>
-  <si>
-    <t>建，物標示</t>
-  </si>
-  <si>
     <t>屏東縣車城鄉福安路</t>
   </si>
   <si>
     <t>屏東縣恆春鎮德和里德和路</t>
   </si>
   <si>
-    <t>97年12月 12曰</t>
-  </si>
-  <si>
-    <t>98年01月 08日</t>
+    <t>97年12月12曰</t>
+  </si>
+  <si>
+    <t>98年01月08日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>3,600,000(總 交易額）</t>
+    <t>3600000(總交易額）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -128,10 +179,10 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>97年06月 20日</t>
-  </si>
-  <si>
-    <t>1,500’000,</t>
+    <t>97年06月20日</t>
+  </si>
+  <si>
+    <t>1500000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -149,7 +200,7 @@
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北潮州 分行</t>
+    <t>合作金庫商業銀行北潮州分行</t>
   </si>
   <si>
     <t>第一商業銀行恆春分行</t>
@@ -158,7 +209,7 @@
     <t>彰化商業銀行車城分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司立 法院郵局</t>
+    <t>中華郵政股份有限公司立法院郵局</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -206,13 +257,13 @@
     <t>台灣銀行中屏分行</t>
   </si>
   <si>
-    <t>98年12月 24日</t>
-  </si>
-  <si>
-    <t>98年07月 06日</t>
-  </si>
-  <si>
-    <t>98年07月 02日</t>
+    <t>98年12月24日</t>
+  </si>
+  <si>
+    <t>98年07月06日</t>
+  </si>
+  <si>
+    <t>98年07月02日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -577,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,161 +656,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2706</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>26.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>8438</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>73920</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>59.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>4195</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>80.84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -777,25 +975,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -803,25 +1001,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>157.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -829,22 +1027,22 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>245.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>5000000</v>
@@ -865,22 +1063,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -888,22 +1086,22 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -921,19 +1119,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -941,16 +1139,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>4716975</v>
@@ -961,16 +1159,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>14631</v>
@@ -981,16 +1179,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>456452</v>
@@ -1001,16 +1199,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>20080</v>
@@ -1021,16 +1219,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>136206</v>
@@ -1041,16 +1239,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>67</v>
@@ -1061,16 +1259,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>61908</v>
@@ -1091,22 +1289,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1114,22 +1312,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>2617597</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1137,22 +1335,22 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1160,22 +1358,22 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>69179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣恆春鎮槺榔林段01430022地號</t>
@@ -80,33 +83,27 @@
     <t>屏東縣車城鄉興安段14980000地號</t>
   </si>
   <si>
-    <t>13.</t>
+    <t>6593分之325</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>6593分之325</t>
-  </si>
-  <si>
     <t>潘孟安</t>
   </si>
   <si>
-    <t>96年07月05日</t>
-  </si>
-  <si>
     <t>98年05月20日</t>
   </si>
   <si>
     <t>97年12月12日</t>
   </si>
   <si>
+    <t>分割</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>分割</t>
-  </si>
-  <si>
     <t>18957</t>
   </si>
   <si>
@@ -125,57 +122,24 @@
     <t>tmp6a821</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>屏東縣車城鄉福安路</t>
   </si>
   <si>
+    <t>97年12月12曰</t>
+  </si>
+  <si>
+    <t>3600000(總交易額）</t>
+  </si>
+  <si>
     <t>屏東縣恆春鎮德和里德和路</t>
   </si>
   <si>
-    <t>97年12月12曰</t>
-  </si>
-  <si>
     <t>98年01月08日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>3600000(總交易額）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>耷記（取得）原因</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
   </si>
   <si>
@@ -185,21 +149,15 @@
     <t>1500000</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行北潮州分行</t>
   </si>
   <si>
@@ -212,61 +170,40 @@
     <t>中華郵政股份有限公司立法院郵局</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>薪臺幣</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>第一銀行恆春分行</t>
+  </si>
+  <si>
+    <t>98年12月24日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>信用貸款</t>
   </si>
   <si>
-    <t>第一銀行恆春分行</t>
-  </si>
-  <si>
     <t>彰化銀行車城分行</t>
   </si>
   <si>
     <t>台灣銀行中屏分行</t>
   </si>
   <si>
-    <t>98年12月24日</t>
-  </si>
-  <si>
     <t>98年07月06日</t>
   </si>
   <si>
     <t>98年07月02日</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
   <si>
     <t>信貸</t>
@@ -628,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,16 +614,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2706</v>
+        <v>26.37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -698,19 +641,19 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
-        <v>1500000</v>
+        <v>8438</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
@@ -719,21 +662,27 @@
         <v>1376</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.29990141058699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>26.37</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -742,22 +691,22 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>8438</v>
+        <v>73920</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>23</v>
@@ -766,21 +715,27 @@
         <v>1376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>231</v>
+        <v>59.24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -789,22 +744,22 @@
         <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2">
-        <v>73920</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
@@ -813,45 +768,51 @@
         <v>1376</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.92021841346883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>59.24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4195</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>23</v>
@@ -860,21 +821,27 @@
         <v>1376</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.640831184589716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>80.84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -886,19 +853,19 @@
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4195</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>23</v>
@@ -907,57 +874,16 @@
         <v>1376</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>80.84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1376</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,76 +901,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>157.86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
-        <v>157.86</v>
+        <v>245.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>245.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2">
         <v>5000000</v>
       </c>
     </row>
@@ -1055,7 +955,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4716975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>14631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
+        <v>456452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>136206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>61908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,317 +1146,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2617597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4716975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>456452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2">
-        <v>136206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2">
-        <v>61908</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2617597</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
-        <v>5000000</v>
+        <v>69179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>98</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="2">
-        <v>69179</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+  </si>
+  <si>
     <t>屏東縣恆春鎮槺榔林段01430022地號</t>
   </si>
   <si>
@@ -83,27 +86,30 @@
     <t>屏東縣車城鄉興安段14980000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>6593分之325</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>潘孟安</t>
   </si>
   <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
     <t>98年05月20日</t>
   </si>
   <si>
     <t>97年12月12日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>分割</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>18957</t>
   </si>
   <si>
@@ -125,19 +131,19 @@
     <t>屏東縣車城鄉福安路</t>
   </si>
   <si>
+    <t>屏東縣恆春鎮德和里德和路</t>
+  </si>
+  <si>
     <t>97年12月12曰</t>
   </si>
   <si>
+    <t>98年01月08日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>3600000(總交易額）</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮德和里德和路</t>
-  </si>
-  <si>
-    <t>98年01月08日</t>
-  </si>
-  <si>
-    <t>新建</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,266 +629,319 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>26.37</v>
+        <v>2706</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>8438</v>
+        <v>1500000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1376</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0492947065069013</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.29990141058699</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>231</v>
+        <v>26.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
-        <v>73920</v>
+        <v>8438</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0.0492947065069013</v>
       </c>
       <c r="Q3" s="2">
-        <v>231</v>
+        <v>1.29990141058699</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>59.24</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>73920</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1376</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0492947065069013</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.92021841346883</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>59.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4195</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1376</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.0492947065069013</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.640831184589716</v>
+        <v>2.92021841346883</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>80.84</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H6" s="2">
+        <v>4195</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>1376</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.640831184589716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>80.84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="2">
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q7" s="2">
         <v>80.84</v>
       </c>
     </row>
@@ -893,59 +952,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
         <v>157.86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>245.1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>157.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>245.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2">
         <v>5000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>245.1</v>
       </c>
     </row>
   </sheetData>
@@ -955,30 +1121,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -996,16 +1185,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1">
         <v>4716975</v>
@@ -1013,121 +1202,141 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
-        <v>14631</v>
+        <v>4716975</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>456452</v>
+        <v>14631</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>20080</v>
+        <v>456452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>136206</v>
+        <v>20080</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
-        <v>67</v>
+        <v>136206</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
         <v>61908</v>
       </c>
     </row>
@@ -1138,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1146,68 +1355,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>2617597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2617597</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>98</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2">
         <v>69179</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>3600000(總交易額）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -1121,38 +1124,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1161,13 +1185,34 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1185,13 +1230,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1205,13 +1250,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1225,13 +1270,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1245,13 +1290,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1265,13 +1310,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1285,13 +1330,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1305,13 +1350,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1325,13 +1370,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -1355,22 +1400,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1">
         <v>2617597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1378,22 +1423,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>2617597</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1401,22 +1446,22 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1424,22 +1469,22 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>69179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -146,6 +146,9 @@
     <t>3600000(總交易額）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
   </si>
   <si>
     <t>1500000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行中屏分行</t>
@@ -1037,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1090,7 +1096,7 @@
         <v>5000000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1176,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1185,16 +1191,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1230,13 +1236,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1250,13 +1256,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1270,13 +1276,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1290,13 +1296,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1310,13 +1316,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1330,13 +1336,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1350,13 +1356,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1370,13 +1376,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -1400,22 +1406,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>2617597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1423,22 +1429,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>2617597</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1446,22 +1452,22 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1469,22 +1475,22 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>69179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -164,34 +164,46 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行北潮州分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行恆春分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行車城分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司立法院郵局</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北潮州分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行恆春分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行車城分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司立法院郵局</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>薪臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -1228,13 +1240,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1245,24 +1257,45 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4716975</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1270,19 +1303,40 @@
       <c r="F2" s="2">
         <v>4716975</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1290,19 +1344,40 @@
       <c r="F3" s="2">
         <v>14631</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1310,19 +1385,40 @@
       <c r="F4" s="2">
         <v>456452</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1330,19 +1426,40 @@
       <c r="F5" s="2">
         <v>20080</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1350,19 +1467,40 @@
       <c r="F6" s="2">
         <v>136206</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1370,25 +1508,67 @@
       <c r="F7" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>61908</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1406,22 +1586,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>2617597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1429,22 +1609,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>2617597</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1452,22 +1632,22 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1475,22 +1655,22 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>69179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
+++ b/legislator/property/output/normal/潘孟安_2011-12-26_財產申報表_tmp6a821.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -206,34 +206,43 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>信用貸款</t>
+  </si>
+  <si>
     <t>第一銀行恆春分行</t>
   </si>
   <si>
+    <t>彰化銀行車城分行</t>
+  </si>
+  <si>
+    <t>台灣銀行中屏分行</t>
+  </si>
+  <si>
     <t>98年12月24日</t>
   </si>
   <si>
+    <t>98年07月06日</t>
+  </si>
+  <si>
+    <t>98年07月02日</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>信用貸款</t>
-  </si>
-  <si>
-    <t>彰化銀行車城分行</t>
-  </si>
-  <si>
-    <t>台灣銀行中屏分行</t>
-  </si>
-  <si>
-    <t>98年07月06日</t>
-  </si>
-  <si>
-    <t>98年07月02日</t>
-  </si>
-  <si>
     <t>信貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1578,61 +1587,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2617597</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>2617597</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1644,18 +1695,39 @@
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1667,10 +1739,31 @@
         <v>69179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
